--- a/biology/Médecine/Hôpital_psychiatrique_de_la_vallée_de_la_Kymi/Hôpital_psychiatrique_de_la_vallée_de_la_Kymi.xlsx
+++ b/biology/Médecine/Hôpital_psychiatrique_de_la_vallée_de_la_Kymi/Hôpital_psychiatrique_de_la_vallée_de_la_Kymi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_psychiatrique_de_la_vall%C3%A9e_de_la_Kymi</t>
+          <t>Hôpital_psychiatrique_de_la_vallée_de_la_Kymi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le hôpital psychiatrique de la vallee de la Kymi (finnois : Kymenlaakson psykiatrinen sairaala, sigle KYPS) est un hôpital psychiatrique du Kymsote situé dans le quartier Kuusankoski de Kouvola en Finlande[1],[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le hôpital psychiatrique de la vallee de la Kymi (finnois : Kymenlaakson psykiatrinen sairaala, sigle KYPS) est un hôpital psychiatrique du Kymsote situé dans le quartier Kuusankoski de Kouvola en Finlande.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_psychiatrique_de_la_vall%C3%A9e_de_la_Kymi</t>
+          <t>Hôpital_psychiatrique_de_la_vallée_de_la_Kymi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2006, les fonctions de l'hôpital de Valkeala et du service psychiatrique de Kotka-Hamina ont été transférées dans le nouveau bâtiment appartenant à Carea, construit sur la colonne de  à Sairaalanmäki.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_psychiatrique_de_la_vall%C3%A9e_de_la_Kymi</t>
+          <t>Hôpital_psychiatrique_de_la_vallée_de_la_Kymi</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,15 +556,87 @@
           <t>Services</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hôpital assuré différents services[1] :
-Psychiatrie adulte
-Les services 1, 2 et 4 sont chacun des services, pour adultes ayant des maladies aiguës, spécialisés dans certains domaines de la psychiatrie ; par exemple, le département 4 est spécialisé dans le traitement de la dépression et propose des consultations d'électrothérapie. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital assuré différents services :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hôpital_psychiatrique_de_la_vallée_de_la_Kymi</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_psychiatrique_de_la_vall%C3%A9e_de_la_Kymi</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Psychiatrie adulte</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les services 1, 2 et 4 sont chacun des services, pour adultes ayant des maladies aiguës, spécialisés dans certains domaines de la psychiatrie ; par exemple, le département 4 est spécialisé dans le traitement de la dépression et propose des consultations d'électrothérapie. 
 Les patients nécessitant une rééducation plus longue sont transférés au service 6. 
 Le service 7 dispose d'un service de psychogériatrie, asurant le traitement des adultes qui ne peuvent pas faire face à l'environnement familial.
-Psychiatrie de l'enfant et de l'adolescent
-Le service de pédopsychiatrie est un service hebdomadaire pour les enfants de moins de 13 ans proposant des recherches et des soins de crise. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hôpital_psychiatrique_de_la_vallée_de_la_Kymi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_psychiatrique_de_la_vall%C3%A9e_de_la_Kymi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Psychiatrie de l'enfant et de l'adolescent</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le service de pédopsychiatrie est un service hebdomadaire pour les enfants de moins de 13 ans proposant des recherches et des soins de crise. 
 À proximité se trouvent l'école hospitalière, le service ambulatoire de pédopsychiatrie de Kouvola, et un hôpital à domicile servant d'intermédiaire entre les soins ambulatoires et un service, où des services de soins médicaux spécialisés sont assurés au domicile du patient.
 </t>
         </is>
